--- a/GitHub-DEV-main/CSV/en/countries.xlsx
+++ b/GitHub-DEV-main/CSV/en/countries.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -39,10 +39,25 @@
     <t>en</t>
   </si>
   <si>
+    <t>es-MX</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>String Length</t>
+  </si>
+  <si>
     <t>shoutout###14:650322###650322::shoutout_classic:bbc:title:Title:bb:bb:4663966fbf093564</t>
   </si>
   <si>
     <t>[div class="mh" style="text-align: inherit;"]Amend an order  [/div]</t>
+  </si>
+  <si>
+    <t>[div class="mh" style="text-align: inherit;"]Enmendar un pedido [/div]</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>shoutout###14:650322###650322::shoutout_classic:bbc:description:Description:bb:bb:11bde29bf9f389c1</t>
@@ -52,34 +67,53 @@
 [/color][/size][/div]</t>
   </si>
   <si>
+    <t xml:space="preserve">[div class="pr" style="text-align: center;"][size=14][color=inherit]Aprenda cómo hacer cambios en los pedidos que ya se han realizado. 
+[/color][/tamaño][/div]</t>
+  </si>
+  <si>
     <t>shoutout###14:650322###1296197::shoutout_action:ss:text:Action Text:bb:bb:3da8a8496c87efad</t>
   </si>
   <si>
     <t>Amend an order[div][/div]</t>
   </si>
   <si>
+    <t>Modificar un pedido[div][/div]</t>
+  </si>
+  <si>
     <t>shoutout###14:650322###1296198::shoutout_action:ss:text:Action Text:bb:bb:51d9cbdd141e9e48</t>
   </si>
   <si>
     <t>[swt=1872286]Show me later[/swt][span style="font-weight:400 !important; "]​[/span]</t>
   </si>
   <si>
+    <t>[swt=1872286]Mostrar más tarde[/swt][span style="font-weight:400 !important; "] [/span]</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###1785104::smartwalkthru:ss:name:Name:tx:tx:6553fc261040fe9f</t>
   </si>
   <si>
     <t>|BIT SWT|Amend an Order</t>
   </si>
   <si>
+    <t>|BIT SWT|Modificar un pedido</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###1785104::smartwalkthru:ms:description:Description:tx:tx:a08b6bd9c3237c51</t>
   </si>
   <si>
     <t>Learn how to easily amend your recently placed orders.</t>
   </si>
   <si>
+    <t>Aprenda a modificar fácilmente sus pedidos realizados recientemente.</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855793::balloon_classic:bbc:title:Title:bb:bb:580c13ea08ebbe67</t>
   </si>
   <si>
     <t>[div class="num2Icon"][/div][div class="mh"]Amend a recent order straight from the homepage [/div]</t>
+  </si>
+  <si>
+    <t>[div class="num2Icon"][/div][div class="mh"]Enmendar un pedido reciente directamente desde la página de inicio [/div]</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187300###14855793::balloon_classic:bbc:description:Description:bb:bb:0b1c6512459dbf74</t>
@@ -89,22 +123,35 @@
 To proceed, click ‘Next’.[/div]</t>
   </si>
   <si>
+    <t xml:space="preserve">Puede modificar o cancelar sus pedidos más recientes con el botón de acciones de pedidos.[div]
+Para continuar, haga clic en “Siguiente”.[/div]</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855794::balloon_classic:bbc:title:Title:bb:bb:bd933b92189b08f9</t>
   </si>
   <si>
     <t>[div class="num1Icon"][/div][div class="mh"]Go to ‘View all orders’ from the menu [/div]</t>
   </si>
   <si>
+    <t>[div class="num1Icon"][/div][div class="mh"]Vaya a ‘Ver todos los pedidos’ desde el menú [/div]</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855795::balloon_classic:bbc:title:Title:tx:tx:930f61862e9b03ed</t>
   </si>
   <si>
     <t>Click on a specific order number to open the order details page and see available actions</t>
   </si>
   <si>
+    <t>Haga clic en un número de pedido específico para abrir la página de detalles del pedido y ver las acciones disponibles</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855799::balloon_classic:bbc:title:Title:tx:tx:840e0d750d1e8944</t>
   </si>
   <si>
     <t>You cannot amend this order</t>
+  </si>
+  <si>
+    <t>No puede modificar este pedido</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187300###14855799::balloon_classic:bbc:description:Description:tx:tx:7cf76dfe34e40cef</t>
@@ -114,10 +161,17 @@
 You can contact customer operations to see if they are able to cancel the order on your behalf.</t>
   </si>
   <si>
+    <t xml:space="preserve">Este pedido ya no puede cancelarse ni modificarse en línea, ya que se ha excedido el límite de tiempo.
+Puede comunicarse con operaciones del cliente para ver si pueden cancelar el pedido en su nombre.</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855800::balloon_classic:bbc:title:Title:tx:tx:8ae7caf1e6d98bb7</t>
   </si>
   <si>
     <t>Your delivery dates may have changed</t>
+  </si>
+  <si>
+    <t>Es posible que sus fechas de entrega hayan cambiado</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187300###14855800::balloon_classic:bbc:description:Description:bb:bb:4ebeb2097451b321</t>
@@ -128,16 +182,27 @@
 [/div][div]You can now continue to review and place your order as normal.[/div]</t>
   </si>
   <si>
+    <t xml:space="preserve">Recuerda revisar tus fechas una vez que hayas hecho todas tus actualizaciones.[div]
+Has completado la guía sobre cómo modificar tu pedido.[/div][div]
+[/div][div]Ahora puede continuar revisando y realizando su pedido como de costumbre.[/div]</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855802::balloon_classic:bbc:title:Title:tx:tx:b87afd774fe7f772</t>
   </si>
   <si>
     <t xml:space="preserve">Check how much time remains to amend this order </t>
   </si>
   <si>
+    <t xml:space="preserve">Verifique cuánto tiempo queda para modificar este pedido </t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855803::balloon_classic:bbc:title:Title:tx:tx:7742749bde27e733</t>
   </si>
   <si>
     <t>Choose to amend or cancel here</t>
+  </si>
+  <si>
+    <t>Elija enmendar o cancelar aquí</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187300###14855803::balloon_classic:bbc:description:Description:bb:bb:55b0dbc947978a40</t>
@@ -147,10 +212,17 @@
 You’ll only see the Cancel and Amend options if you’re still within the cut off time to make changes.[/div]</t>
   </si>
   <si>
+    <t xml:space="preserve">Enmendar un pedido abrirá la canasta para que pueda agregar, eliminar o actualizar artículos.[div]
+Solo verás las opciones Cancelar y Modificar si aún estás dentro de la hora límite para hacer cambios.[/div]</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855804::balloon_classic:bbc:title:Title:tx:tx:0fee04096707a083</t>
   </si>
   <si>
     <t>Update the products in your basket</t>
+  </si>
+  <si>
+    <t>Actualice los productos en su canasta</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187300###14855804::balloon_classic:bbc:description:Description:tx:tx:f4f3dd664e48b35a</t>
@@ -160,10 +232,17 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Puede actualizar la cantidad o agregar y eliminar productos.
+</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855805::balloon_classic:bbc:title:Title:tx:tx:4efa9e35a17b2b1f</t>
   </si>
   <si>
     <t>Your pickup dates may have changed</t>
+  </si>
+  <si>
+    <t>Es posible que sus fechas de recolección hayan cambiado</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187300###14855805::balloon_classic:bbc:description:Description:bb:bb:94b13be70bb2a9d2</t>
@@ -177,16 +256,30 @@
 [/div]</t>
   </si>
   <si>
+    <t xml:space="preserve">Recuerda revisar tus fechas una vez que hayas hecho todas tus actualizaciones.[div]
+Ha completado la guía sobre cómo modificar su pedido. + +[/div][div]
+[/div][div]Ahora puede continuar revisando y realizando su pedido como de costumbre.
+[/div]</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855848::balloon_classic:bbc:title:Title:tx:tx:08e3e6083155f20a</t>
   </si>
   <si>
     <t>Check your account and delivery address</t>
   </si>
   <si>
+    <t>Verifique su cuenta y dirección de entrega</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855849::balloon_classic:bbc:title:Title:tx:tx:8f0eff8f549cd338</t>
   </si>
   <si>
     <t>Check if the order is eligible for amends</t>
+  </si>
+  <si>
+    <t>Verifique si el pedido es elegible para enmiendas</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187300###14855849::balloon_classic:bbc:description:Description:bb:bb:516f90fa08ae3424</t>
@@ -196,16 +289,26 @@
 [ul][li]Click on a specific order number to open the order details page and see available actions.[/li][li]Click the three dots to see what actions are available for each order.[/li][/ul]</t>
   </si>
   <si>
+    <t xml:space="preserve">Hay dos maneras de verificar:
+[ul][li]Haga clic en un número de pedido específico para abrir la página de detalles del pedido y ver las acciones disponibles.[/li][li]Haga clic en los tres puntos para ver qué acciones están disponibles para cada pedido.[/li][/ul]</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855851::balloon_classic:bbc:title:Title:tx:tx:71f2bfe443d85035</t>
   </si>
   <si>
     <t>Click on an order number to see available options</t>
   </si>
   <si>
+    <t>Haga clic en un número de pedido para ver las opciones disponibles</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187300###14855852::balloon_classic:bbc:title:Title:tx:tx:4adc676d85515a0c</t>
   </si>
   <si>
     <t>Check your available options</t>
+  </si>
+  <si>
+    <t>Verifique sus opciones disponibles</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187300###14855852::balloon_classic:bbc:description:Description:bb:bb:d5567ae2f78af919</t>
@@ -216,10 +319,18 @@
 You can only continue the guide if you currently have an order that is eligible. If not, come back when you’ve placed a new order and select the Amend order guide from the Learning Centre.[/div]</t>
   </si>
   <si>
+    <t xml:space="preserve">Esto enumera todas las acciones que están disponibles actualmente para este pedido. [div]
+Las opciones “Modificar pedido” y “Cancelar pedido” no estarán visibles una vez que haya pasado la [b]hora límite[/b] para realizar cambios.[/div][div]
+Solo puede continuar con la guía si actualmente tiene un pedido elegible. De lo contrario, regrese cuando haya realizado un nuevo pedido y seleccione la guía de pedidos de modificación del Centro de aprendizaje.[/div]</t>
+  </si>
+  <si>
     <t>shoutout###14:650348###650348::shoutout_classic:bbc:title:Title:bb:bb:8dd3a93228ff0e50</t>
   </si>
   <si>
     <t>[div class="mh"][size=20]Looking for your download request [/size][/div]</t>
+  </si>
+  <si>
+    <t>[div class="mh"][size=20]Buscando su solicitud de descarga [/size][/div]</t>
   </si>
   <si>
     <t>shoutout###14:650348###650348::shoutout_classic:bbc:description:Description:bb:bb:fb94df7fa4dac2a5</t>
@@ -230,34 +341,54 @@
 [/div]</t>
   </si>
   <si>
+    <t xml:space="preserve">[div class="pr"][size=16]Puede descargar más de 100 documentos en un solo archivo.
+[/size][/div][div class="pr"][size=16]Vaya al área de facturación dentro de Finanzas y documentos para realizar una descarga por lotes.[/size]
+[/div]</t>
+  </si>
+  <si>
     <t>shoutout###14:650348###1296249::shoutout_action:ss:text:Action Text:tx:tx:fdd719956cb14869</t>
   </si>
   <si>
     <t>Continue</t>
   </si>
   <si>
+    <t>Continuar</t>
+  </si>
+  <si>
     <t>shoutout###14:650348###1296250::shoutout_action:ss:text:Action Text:bb:bb:abe6db37471b7321</t>
   </si>
   <si>
     <t>[span style="font-weight:400 !important; "][swt=1872286]Show me later[/swt][/span]</t>
   </si>
   <si>
+    <t>[span style="font-weight:400 !important; "][swt=1872286]Muéstreme más tarde[/swt][/span]</t>
+  </si>
+  <si>
     <t>custom_image###51:545441###545441::custom_image:ss:text:Text:tx:tx:22f700b15dd4881b</t>
   </si>
   <si>
     <t>Learn about batch downloads</t>
   </si>
   <si>
+    <t>Obtenga información sobre las descargas por lotes</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187414###1785202::smartwalkthru:ss:name:Name:tx:tx:b9aa7c55a0cc889e</t>
   </si>
   <si>
     <t>|BIT BEC| In progress download highlight</t>
   </si>
   <si>
+    <t>|BIT BEC| Resaltar descarga en curso</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187414###14856494::balloon_classic:bbc:title:Title:tx:tx:c3a1468f72afde6e</t>
   </si>
   <si>
     <t>Check here for download notifications</t>
+  </si>
+  <si>
+    <t>Marque aquí para ver las notificaciones de descarga</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187414###14856494::balloon_classic:bbc:description:Description:bb:bb:d1733b363dbf2451</t>
@@ -268,16 +399,27 @@
 [/div]</t>
   </si>
   <si>
+    <t xml:space="preserve">[div]Una vez que la descarga esté lista, aparecerá un punto rojo aquí. Haga clic en el icono para ver la notificación.[/div][div]
+Los archivos están disponibles durante 30 días a partir de su solicitud.
+[/div]</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187415###1785203::smartwalkthru:ss:name:Name:tx:tx:e3182e97d696940c</t>
   </si>
   <si>
     <t>|BIT SH+BEC| What are batch downloads</t>
   </si>
   <si>
+    <t>|BIT SH+BEC| Qué son las descargas por lotes</t>
+  </si>
+  <si>
     <t>smartwalkthru###19:2187415###14856495::balloon_classic:bbc:title:Title:tx:tx:daa940c9ee70222c</t>
   </si>
   <si>
     <t>What are batch downloads?</t>
+  </si>
+  <si>
+    <t>¿Qué son las descargas por lotes?</t>
   </si>
   <si>
     <t>smartwalkthru###19:2187415###14856495::balloon_classic:bbc:description:Description:bb:bb:7a6d4a19cd6fbf55</t>
@@ -294,30 +436,55 @@
 [/div]</t>
   </si>
   <si>
+    <t xml:space="preserve">Las descargas por lotes se crean cuando selecciona 100 o más documentos para descargar a la vez. + +[div]
+[/div][div]Los documentos se compilan en un archivo .zip que se almacena durante 30 días. Puede almacenar hasta 25 descargas por lotes en cualquier momento.  + +[/div][div]
+[/div][div]Administre, descargue o elimine archivos .zip de su almacenamiento desde la página “Descargas por lotes” dentro del menú Finanzas y documentos. +
+[/div]</t>
+  </si>
+  <si>
     <t>country_shoutout###14:650322###650322::shoutout_classic:bbc:title:Title:bb:bb:4663966fbf093564</t>
   </si>
   <si>
     <t>country_shoutout###14:650322###650322::shoutout_classic:bbc:description:Description:bb:bb:11bde29bf9f389c1</t>
   </si>
   <si>
+    <t xml:space="preserve">[div class="pr" style="text-align: center;"][size=14][color=inherit]Aprenda cómo hacer cambios en los pedidos que ya se han realizado. 
+[/color][/size][/div]</t>
+  </si>
+  <si>
     <t>country_shoutout###14:650322###1296197::shoutout_action:ss:text:Action Text:bb:bb:3da8a8496c87efad</t>
   </si>
   <si>
     <t>country_shoutout###14:650322###1296198::shoutout_action:ss:text:Action Text:bb:bb:51d9cbdd141e9e48</t>
   </si>
   <si>
+    <t>[swt=1872286]Muéstreme más tarde[/swt][span style="font-weight:400 !important; "] [/span]</t>
+  </si>
+  <si>
     <t>country_smartwalkthru###19:2187300###1785104::smartwalkthru:ss:name:Name:tx:tx:6553fc261040fe9f</t>
   </si>
   <si>
     <t>country_smartwalkthru###19:2187300###1785104::smartwalkthru:ms:description:Description:tx:tx:a08b6bd9c3237c51</t>
   </si>
   <si>
+    <t>Aprenda a modificar fácilmente sus pedidos recientemente realizados.</t>
+  </si>
+  <si>
     <t>country_smartwalkthru###19:2187300###14855793::balloon_classic:bbc:title:Title:bb:bb:580c13ea08ebbe67</t>
   </si>
   <si>
     <t>country_smartwalkthru###19:2187300###14855793::balloon_classic:bbc:description:Description:bb:bb:0b1c6512459dbf74</t>
   </si>
   <si>
+    <t xml:space="preserve">Puede modificar o cancelar sus pedidos más recientes utilizando el botón de acciones de pedidos.[div]
+Para continuar, haga clic en “Siguiente”.[/div]</t>
+  </si>
+  <si>
     <t>country_smartwalkthru###19:2187300###14855794::balloon_classic:bbc:title:Title:bb:bb:bd933b92189b08f9</t>
   </si>
   <si>
@@ -339,12 +506,19 @@
     <t>country_smartwalkthru###19:2187300###14855802::balloon_classic:bbc:title:Title:tx:tx:b87afd774fe7f772</t>
   </si>
   <si>
+    <t xml:space="preserve">Compruebe cuánto tiempo queda para modificar este pedido </t>
+  </si>
+  <si>
     <t>country_smartwalkthru###19:2187300###14855803::balloon_classic:bbc:title:Title:tx:tx:7742749bde27e733</t>
   </si>
   <si>
     <t>country_smartwalkthru###19:2187300###14855803::balloon_classic:bbc:description:Description:bb:bb:55b0dbc947978a40</t>
   </si>
   <si>
+    <t xml:space="preserve">Enmendar un pedido abrirá la canasta para que pueda agregar, eliminar o actualizar artículos.[div]
+Solo verás las opciones Cancelar y Modificar si aún estás dentro del tiempo límite para hacer cambios.[/div]</t>
+  </si>
+  <si>
     <t>country_smartwalkthru###19:2187300###14855804::balloon_classic:bbc:title:Title:tx:tx:0fee04096707a083</t>
   </si>
   <si>
@@ -363,6 +537,9 @@
     <t>country_smartwalkthru###19:2187300###14855849::balloon_classic:bbc:title:Title:tx:tx:8f0eff8f549cd338</t>
   </si>
   <si>
+    <t>Verificar si el pedido es elegible para enmiendas</t>
+  </si>
+  <si>
     <t>country_smartwalkthru###19:2187300###14855849::balloon_classic:bbc:description:Description:bb:bb:516f90fa08ae3424</t>
   </si>
   <si>
@@ -373,6 +550,11 @@
   </si>
   <si>
     <t>country_smartwalkthru###19:2187300###14855852::balloon_classic:bbc:description:Description:bb:bb:d5567ae2f78af919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esto enumera todas las acciones que están disponibles actualmente para este pedido. [div]
+Las opciones “Modificar pedido” y “Cancelar pedido” no estarán visibles una vez que haya pasado la [b]hora de corte[/b] para realizar cambios.[/div][div]
+Solo puede continuar con la guía si actualmente tiene un pedido elegible. De lo contrario, regrese cuando haya realizado un nuevo pedido y seleccione la guía de modificación de pedidos del Centro de aprendizaje.[/div]</t>
   </si>
   <si>
     <t>country_shoutout###14:650348###650348::shoutout_classic:bbc:title:Title:bb:bb:8dd3a93228ff0e50</t>
@@ -792,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -804,618 +986,1311 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>79</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>85</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>103</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>109</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>112</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>115</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>118</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>51</v>
+        <v>79</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>55</v>
+        <v>85</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>67</v>
+        <v>103</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>71</v>
+        <v>109</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>73</v>
+      <c r="D75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>75</v>
+        <v>115</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>77</v>
+        <v>118</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B77"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E77"/>
   </ignoredErrors>
 </worksheet>
 </file>